--- a/seed/hardware.xlsx
+++ b/seed/hardware.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerburguillos/AIMS-Project/seed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{083089AB-7F6D-EB45-89A1-6B2233E5F07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1F603B1-F55F-8249-9777-364D484C7AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{5F3D9FAC-A066-C346-B7C6-FF9574A3893F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="189">
   <si>
     <t>Laptop</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Dell Latitude 7440</t>
-  </si>
-  <si>
-    <t>In Use</t>
   </si>
   <si>
     <t>Latitude 7440</t>
@@ -960,7 +957,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:L6"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1036,10 +1033,10 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="I2" s="1">
         <v>46517</v>
@@ -1048,7 +1045,7 @@
         <v>45056</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -1059,10 +1056,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1074,10 +1071,10 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="I3" s="1">
         <v>46283</v>
@@ -1086,7 +1083,7 @@
         <v>44822</v>
       </c>
       <c r="K3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -1097,10 +1094,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1112,10 +1109,10 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="I4" s="1">
         <v>46082</v>
@@ -1124,7 +1121,7 @@
         <v>44256</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -1135,25 +1132,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="I5" s="1">
         <v>46764</v>
@@ -1162,7 +1159,7 @@
         <v>45303</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -1173,25 +1170,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>117</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>118</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I6" s="1">
         <v>45890</v>
@@ -1200,7 +1197,7 @@
         <v>44429</v>
       </c>
       <c r="K6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -1211,10 +1208,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1226,10 +1223,10 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="I7" s="1">
         <v>46428</v>
@@ -1238,7 +1235,7 @@
         <v>45332</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1249,10 +1246,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
         <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1264,10 +1261,10 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="I8" s="1">
         <v>46204</v>
@@ -1276,7 +1273,7 @@
         <v>45474</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1287,10 +1284,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
         <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>67</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1302,10 +1299,10 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="I9" s="1">
         <v>46327</v>
@@ -1314,7 +1311,7 @@
         <v>45597</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1325,7 +1322,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1343,7 +1340,7 @@
         <v>7010</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" s="1">
         <v>46466</v>
@@ -1352,7 +1349,7 @@
         <v>45371</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1363,10 +1360,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
         <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>75</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -1378,10 +1375,10 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="I11" s="1">
         <v>46858</v>
@@ -1390,7 +1387,7 @@
         <v>45397</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1401,10 +1398,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
         <v>78</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -1413,13 +1410,13 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
         <v>80</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="I12" s="1">
         <v>46305</v>
@@ -1428,7 +1425,7 @@
         <v>45209</v>
       </c>
       <c r="K12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1439,13 +1436,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
         <v>84</v>
       </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -1454,10 +1451,10 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="I13" s="1">
         <v>46722</v>
@@ -1466,7 +1463,7 @@
         <v>45627</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1477,10 +1474,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1492,10 +1489,10 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="I14" s="1">
         <v>46392</v>
@@ -1504,7 +1501,7 @@
         <v>45296</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1515,7 +1512,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -1530,10 +1527,10 @@
         <v>4</v>
       </c>
       <c r="G15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="I15" s="1">
         <v>46803</v>
@@ -1542,7 +1539,7 @@
         <v>45342</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1553,10 +1550,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
         <v>97</v>
-      </c>
-      <c r="C16" t="s">
-        <v>98</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1568,10 +1565,10 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="I16" s="1">
         <v>46544</v>
@@ -1580,7 +1577,7 @@
         <v>45449</v>
       </c>
       <c r="K16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1591,10 +1588,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -1603,13 +1600,13 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
         <v>103</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="I17" s="1">
         <v>46274</v>
@@ -1618,7 +1615,7 @@
         <v>45544</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1629,10 +1626,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -1644,10 +1641,10 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="I18" s="1">
         <v>46815</v>
@@ -1656,7 +1653,7 @@
         <v>45354</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1667,25 +1664,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
         <v>111</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
         <v>112</v>
       </c>
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="I19" s="1">
         <v>46878</v>
@@ -1694,7 +1691,7 @@
         <v>45417</v>
       </c>
       <c r="K19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1705,25 +1702,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
         <v>122</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
         <v>123</v>
-      </c>
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>124</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="I20" s="1">
         <v>46249</v>
@@ -1732,7 +1729,7 @@
         <v>45153</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -1743,10 +1740,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
         <v>131</v>
-      </c>
-      <c r="C21" t="s">
-        <v>132</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -1758,10 +1755,10 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" t="s">
         <v>133</v>
-      </c>
-      <c r="H21" t="s">
-        <v>134</v>
       </c>
       <c r="I21" s="1">
         <v>46822</v>
@@ -1770,7 +1767,7 @@
         <v>45361</v>
       </c>
       <c r="K21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -1781,25 +1778,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
         <v>136</v>
-      </c>
-      <c r="C22" t="s">
-        <v>137</v>
       </c>
       <c r="D22" t="s">
         <v>19</v>
       </c>
       <c r="E22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" t="s">
         <v>138</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>139</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>140</v>
-      </c>
-      <c r="H22" t="s">
-        <v>141</v>
       </c>
       <c r="I22" s="1">
         <v>46011</v>
@@ -1808,7 +1805,7 @@
         <v>44915</v>
       </c>
       <c r="K22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -1819,10 +1816,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" t="s">
         <v>143</v>
-      </c>
-      <c r="C23" t="s">
-        <v>144</v>
       </c>
       <c r="D23" t="s">
         <v>0</v>
@@ -1834,10 +1831,10 @@
         <v>8</v>
       </c>
       <c r="G23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" t="s">
         <v>145</v>
-      </c>
-      <c r="H23" t="s">
-        <v>146</v>
       </c>
       <c r="I23" s="1">
         <v>46784</v>
@@ -1846,7 +1843,7 @@
         <v>45323</v>
       </c>
       <c r="K23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -1857,10 +1854,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" t="s">
         <v>148</v>
-      </c>
-      <c r="C24" t="s">
-        <v>149</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
@@ -1872,10 +1869,10 @@
         <v>6</v>
       </c>
       <c r="G24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" t="s">
         <v>150</v>
-      </c>
-      <c r="H24" t="s">
-        <v>151</v>
       </c>
       <c r="I24" s="1">
         <v>46949</v>
@@ -1884,7 +1881,7 @@
         <v>45488</v>
       </c>
       <c r="K24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -1895,25 +1892,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" t="s">
         <v>153</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>154</v>
       </c>
-      <c r="D25" t="s">
-        <v>155</v>
-      </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
       </c>
       <c r="G25" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" t="s">
         <v>156</v>
-      </c>
-      <c r="H25" t="s">
-        <v>157</v>
       </c>
       <c r="I25" s="1">
         <v>46670</v>
@@ -1922,7 +1919,7 @@
         <v>45209</v>
       </c>
       <c r="K25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -1933,16 +1930,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
         <v>159</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>160</v>
       </c>
-      <c r="D26" t="s">
-        <v>161</v>
-      </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -1951,7 +1948,7 @@
         <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I26" s="1">
         <v>46461</v>
@@ -1960,7 +1957,7 @@
         <v>45366</v>
       </c>
       <c r="K26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -1971,25 +1968,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" t="s">
         <v>164</v>
-      </c>
-      <c r="C27" t="s">
-        <v>165</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
       </c>
       <c r="G27" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" t="s">
         <v>166</v>
-      </c>
-      <c r="H27" t="s">
-        <v>167</v>
       </c>
       <c r="I27" s="1">
         <v>46642</v>
@@ -1998,7 +1995,7 @@
         <v>45181</v>
       </c>
       <c r="K27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2009,13 +2006,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" t="s">
         <v>169</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>170</v>
-      </c>
-      <c r="D28" t="s">
-        <v>171</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
@@ -2024,10 +2021,10 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" t="s">
         <v>172</v>
-      </c>
-      <c r="H28" t="s">
-        <v>173</v>
       </c>
       <c r="I28" s="1">
         <v>47169</v>
@@ -2036,7 +2033,7 @@
         <v>45342</v>
       </c>
       <c r="K28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2047,10 +2044,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" t="s">
         <v>175</v>
-      </c>
-      <c r="C29" t="s">
-        <v>176</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
@@ -2062,10 +2059,10 @@
         <v>6</v>
       </c>
       <c r="G29" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" t="s">
         <v>177</v>
-      </c>
-      <c r="H29" t="s">
-        <v>178</v>
       </c>
       <c r="I29" s="1">
         <v>46543</v>
@@ -2074,7 +2071,7 @@
         <v>45082</v>
       </c>
       <c r="K29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2085,13 +2082,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" t="s">
         <v>180</v>
       </c>
-      <c r="C30" t="s">
-        <v>181</v>
-      </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
         <v>1</v>
@@ -2100,10 +2097,10 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" t="s">
         <v>182</v>
-      </c>
-      <c r="H30" t="s">
-        <v>183</v>
       </c>
       <c r="I30" s="1">
         <v>46898</v>
@@ -2112,7 +2109,7 @@
         <v>45437</v>
       </c>
       <c r="K30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2123,13 +2120,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" t="s">
         <v>185</v>
       </c>
-      <c r="C31" t="s">
-        <v>186</v>
-      </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
@@ -2138,10 +2135,10 @@
         <v>8</v>
       </c>
       <c r="G31" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" t="s">
         <v>187</v>
-      </c>
-      <c r="H31" t="s">
-        <v>188</v>
       </c>
       <c r="I31" s="1">
         <v>46853</v>
@@ -2150,7 +2147,7 @@
         <v>45392</v>
       </c>
       <c r="K31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2158,5 +2155,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/seed/hardware.xlsx
+++ b/seed/hardware.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerburguillos/AIMS-Project/seed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1F603B1-F55F-8249-9777-364D484C7AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E6EE18-5134-814F-9C7B-27CA198CE62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{5F3D9FAC-A066-C346-B7C6-FF9574A3893F}"/>
   </bookViews>
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D3B76E-54BE-344B-A24C-B9B96C578453}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
